--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>0.045658148158</v>
+        <v>0.036952551734</v>
       </c>
       <c r="R2">
-        <v>0.273948888948</v>
+        <v>0.221715310404</v>
       </c>
       <c r="S2">
-        <v>0.06480935024055434</v>
+        <v>0.08499212241052816</v>
       </c>
       <c r="T2">
-        <v>0.07226350532371609</v>
+        <v>0.1042864475836364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
         <v>0.003618810640666667</v>
@@ -641,10 +641,10 @@
         <v>0.032569295766</v>
       </c>
       <c r="S3">
-        <v>0.005136712191077271</v>
+        <v>0.008323387222784617</v>
       </c>
       <c r="T3">
-        <v>0.008591279515730292</v>
+        <v>0.01531935773649502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>0.295746420079918</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.009762843262666666</v>
+        <v>0.006879437754000001</v>
       </c>
       <c r="R4">
-        <v>0.087865589364</v>
+        <v>0.061914939786</v>
       </c>
       <c r="S4">
-        <v>0.01385784474140871</v>
+        <v>0.01582294018319707</v>
       </c>
       <c r="T4">
-        <v>0.02317759166375776</v>
+        <v>0.02912243232490907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>0.042898549547</v>
+        <v>0.038751293672</v>
       </c>
       <c r="R5">
-        <v>0.257391297282</v>
+        <v>0.232507762032</v>
       </c>
       <c r="S5">
-        <v>0.06089224452954864</v>
+        <v>0.08912928988085425</v>
       </c>
       <c r="T5">
-        <v>0.06789586719202421</v>
+        <v>0.1093628062660905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>0.295746420079918</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>0.028446902638</v>
+        <v>0.0009644480906666668</v>
       </c>
       <c r="R6">
-        <v>0.2560221237420001</v>
+        <v>0.008680032816000001</v>
       </c>
       <c r="S6">
-        <v>0.04037888855993955</v>
+        <v>0.002218263322397856</v>
       </c>
       <c r="T6">
-        <v>0.06753470026129919</v>
+        <v>0.00408275723332139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>0.02370767263666667</v>
+        <v>0.007930681738000002</v>
       </c>
       <c r="R7">
-        <v>0.21336905373</v>
+        <v>0.071376135642</v>
       </c>
       <c r="S7">
-        <v>0.03365179976159243</v>
+        <v>0.01824083700435896</v>
       </c>
       <c r="T7">
-        <v>0.05628347612339052</v>
+        <v>0.03357261893546558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>0.1630869155615</v>
+        <v>0.1319912858395</v>
       </c>
       <c r="R8">
-        <v>0.652347662246</v>
+        <v>0.527965143358</v>
       </c>
       <c r="S8">
-        <v>0.2314933359474199</v>
+        <v>0.3035844345458807</v>
       </c>
       <c r="T8">
-        <v>0.1720792843681716</v>
+        <v>0.2483347187366715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1001,10 +1001,10 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
         <v>0.01292607539283333</v>
@@ -1013,10 +1013,10 @@
         <v>0.07755645235700001</v>
       </c>
       <c r="S9">
-        <v>0.01834788709500395</v>
+        <v>0.02973041185311629</v>
       </c>
       <c r="T9">
-        <v>0.02045819980986464</v>
+        <v>0.0364796048083613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1051,34 +1051,34 @@
         <v>0.704253579920082</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>0.03487202304633333</v>
+        <v>0.0245727505245</v>
       </c>
       <c r="R10">
-        <v>0.209232138278</v>
+        <v>0.147436503147</v>
       </c>
       <c r="S10">
-        <v>0.04949901050269617</v>
+        <v>0.05651815970857722</v>
       </c>
       <c r="T10">
-        <v>0.05519222142643822</v>
+        <v>0.06934852234307799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>0.15322987045975</v>
+        <v>0.138416234866</v>
       </c>
       <c r="R11">
-        <v>0.612919481839</v>
+        <v>0.5536649394640001</v>
       </c>
       <c r="S11">
-        <v>0.2175017766286847</v>
+        <v>0.3183620352396714</v>
       </c>
       <c r="T11">
-        <v>0.1616787365298976</v>
+        <v>0.2604229251606432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1175,34 +1175,34 @@
         <v>0.704253579920082</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>0.1016098505015</v>
+        <v>0.003444924305333334</v>
       </c>
       <c r="R12">
-        <v>0.6096591030090002</v>
+        <v>0.020669545832</v>
       </c>
       <c r="S12">
-        <v>0.1442298615847003</v>
+        <v>0.007923442753332167</v>
       </c>
       <c r="T12">
-        <v>0.1608186987183051</v>
+        <v>0.009722168054423861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>0.08468173505583335</v>
+        <v>0.02832770217650001</v>
       </c>
       <c r="R13">
-        <v>0.508090410335</v>
+        <v>0.169966213059</v>
       </c>
       <c r="S13">
-        <v>0.1202012882173742</v>
+        <v>0.0651546758753013</v>
       </c>
       <c r="T13">
-        <v>0.1340264390674048</v>
+        <v>0.07994564081690411</v>
       </c>
     </row>
   </sheetData>
